--- a/Program/CaseStudy_Output/04_24_01GAP_CaseStudy_CI_0.xlsx
+++ b/Program/CaseStudy_Output/04_24_01GAP_CaseStudy_CI_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresawettig/PycharmProjects/2022_aCar_VRPs/Program/CaseStudy_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978CC18-436F-9243-A72D-AB3F83531BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AAB92E-AE8A-9143-9160-FC24D503CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6510,7 +6511,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
